--- a/按键帮助.xlsx
+++ b/按键帮助.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="0" windowWidth="24240" windowHeight="9810"/>
+    <workbookView xWindow="8310" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="243">
   <si>
     <t>程序</t>
   </si>
@@ -175,27 +175,6 @@
     <t>F1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.捐赠版激活_辅助工具，捐赠版以脚本为主</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2.双按项目整理和清理内存</t>
-    </r>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
@@ -445,12 +424,6 @@
     <t>按住Ctrl+c复制继续按住Ctrl+c(双)执行复制命令，不用去按Ctrl+v执行</t>
   </si>
   <si>
-    <t>空格+1</t>
-  </si>
-  <si>
-    <t>项目整理</t>
-  </si>
-  <si>
     <t>空格+2</t>
   </si>
   <si>
@@ -461,12 +434,6 @@
   </si>
   <si>
     <t>效果预设</t>
-  </si>
-  <si>
-    <t>空格+x</t>
-  </si>
-  <si>
-    <t>激活QuickMenu，弹出窗口忽略</t>
   </si>
   <si>
     <t>F9</t>
@@ -772,9 +739,6 @@
     <t>搜索快捷命令</t>
   </si>
   <si>
-    <t>还原Tab功能</t>
-  </si>
-  <si>
     <t>Tab</t>
   </si>
   <si>
@@ -821,6 +785,42 @@
   </si>
   <si>
     <t>其它软件文档</t>
+  </si>
+  <si>
+    <t>数字2</t>
+  </si>
+  <si>
+    <t>数字4</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>右键</t>
+  </si>
+  <si>
+    <t>快捷命令</t>
+  </si>
+  <si>
+    <t>搜索快捷命令、双按快捷命令</t>
+  </si>
+  <si>
+    <t>项目整理、双按项目整理和清理内存</t>
+  </si>
+  <si>
+    <r>
+      <t>1.捐赠版激活_辅助工具，捐赠版以脚本为主</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2199,6 +2199,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2278,21 +2293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2576,7 +2576,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2595,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="69" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="102" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="103"/>
@@ -2624,10 +2624,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="129" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="107" t="s">
@@ -2640,8 +2640,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="122"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="107" t="s">
         <v>10</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="122"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="107" t="s">
         <v>12</v>
       </c>
@@ -2664,35 +2664,35 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="107"/>
       <c r="F6" s="109" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="107"/>
       <c r="D7" s="108"/>
       <c r="E7" s="107"/>
       <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="122"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
       <c r="E8" s="107"/>
       <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="122"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="107"/>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -2700,8 +2700,8 @@
       <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="122"/>
-      <c r="B10" s="125" t="s">
+      <c r="A10" s="127"/>
+      <c r="B10" s="130" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="107"/>
@@ -2710,47 +2710,47 @@
       <c r="F10" s="109"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="122"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
       <c r="E11" s="107"/>
       <c r="F11" s="109"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="122"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="107"/>
       <c r="D12" s="108"/>
       <c r="E12" s="107"/>
       <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="122"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
       <c r="E13" s="107"/>
       <c r="F13" s="109"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="122"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107"/>
       <c r="F14" s="109"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="122"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
       <c r="E15" s="107"/>
       <c r="F15" s="109"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="122"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="107"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108"/>
@@ -2758,7 +2758,7 @@
       <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="122"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="107"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -2766,8 +2766,8 @@
       <c r="F17" s="109"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="122"/>
-      <c r="B18" s="125" t="s">
+      <c r="A18" s="127"/>
+      <c r="B18" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="107" t="s">
@@ -2776,63 +2776,63 @@
       <c r="D18" s="108"/>
       <c r="E18" s="107"/>
       <c r="F18" s="109" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="122"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="107" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="107"/>
       <c r="F19" s="109" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="122"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="107"/>
       <c r="D20" s="108"/>
       <c r="E20" s="107"/>
       <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="107"/>
       <c r="D21" s="108"/>
       <c r="E21" s="107"/>
       <c r="F21" s="109"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="122"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="107"/>
       <c r="D22" s="108"/>
       <c r="E22" s="107"/>
       <c r="F22" s="109"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="122"/>
-      <c r="B23" s="125"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="107"/>
       <c r="D23" s="108"/>
       <c r="E23" s="107"/>
       <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="122"/>
-      <c r="B24" s="125"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="107"/>
       <c r="D24" s="108"/>
       <c r="E24" s="107"/>
       <c r="F24" s="109"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="122"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="107"/>
       <c r="C25" s="107"/>
       <c r="D25" s="108"/>
@@ -2840,31 +2840,31 @@
       <c r="F25" s="109"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="107"/>
       <c r="D26" s="108"/>
       <c r="E26" s="107"/>
       <c r="F26" s="109"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="122"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="107"/>
       <c r="D27" s="108"/>
       <c r="E27" s="107"/>
       <c r="F27" s="109"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="122"/>
-      <c r="B28" s="125"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="107"/>
       <c r="D28" s="108"/>
       <c r="E28" s="107"/>
       <c r="F28" s="109"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="122"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="108"/>
@@ -2872,9 +2872,9 @@
       <c r="F29" s="109"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="122"/>
-      <c r="B30" s="125" t="s">
-        <v>229</v>
+      <c r="A30" s="127"/>
+      <c r="B30" s="130" t="s">
+        <v>223</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>14</v>
@@ -2882,44 +2882,44 @@
       <c r="D30" s="108"/>
       <c r="E30" s="107"/>
       <c r="F30" s="109" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="123"/>
-      <c r="B31" s="126"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="110" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D31" s="111"/>
       <c r="E31" s="110"/>
       <c r="F31" s="112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+    </row>
+    <row r="35" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="123"/>
+      <c r="B35" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="121" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-    </row>
-    <row r="35" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="151"/>
-      <c r="B35" s="148" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" s="148" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="151"/>
+      <c r="D35" s="122" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="124"/>
+      <c r="F35" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2945,9 +2945,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2964,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2993,7 +2995,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="132" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6"/>
@@ -3007,7 +3009,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="127"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3019,7 +3021,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3040,7 +3042,7 @@
       <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="129"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>8</v>
@@ -3057,7 +3059,7 @@
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="130"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
@@ -3073,8 +3075,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="131"/>
-      <c r="B8" s="143" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -3089,8 +3091,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="131"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="36" t="s">
         <v>35</v>
       </c>
@@ -3103,8 +3105,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="131"/>
-      <c r="B10" s="138"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="73" t="s">
         <v>37</v>
       </c>
@@ -3119,36 +3121,36 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="131"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="119" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="114" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="131"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="120" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="131"/>
-      <c r="B13" s="135" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="140" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -3163,8 +3165,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="131"/>
-      <c r="B14" s="136"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="73" t="s">
         <v>42</v>
       </c>
@@ -3177,8 +3179,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="131"/>
-      <c r="B15" s="136"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="36" t="s">
         <v>44</v>
       </c>
@@ -3191,8 +3193,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="131"/>
-      <c r="B16" s="136"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="36" t="s">
         <v>46</v>
       </c>
@@ -3205,8 +3207,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="131"/>
-      <c r="B17" s="136"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="79" t="s">
         <v>48</v>
       </c>
@@ -3215,54 +3217,54 @@
         <v>26</v>
       </c>
       <c r="F17" s="80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="136"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="79" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="131"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="79" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="136"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="79" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="131"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="79" t="s">
-        <v>52</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="136"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="79" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="131"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="79" t="s">
-        <v>54</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="131"/>
-      <c r="B21" s="136"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="79" t="s">
         <v>37</v>
       </c>
@@ -3271,628 +3273,662 @@
         <v>26</v>
       </c>
       <c r="F21" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="136"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="79" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="131"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="79" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="136"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="136"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="136"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="136"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="131"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="13" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="33" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="136"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="131"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="33" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="136"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="131"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="33" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="136"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="136"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="131"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="131"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="E30" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="33" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="136"/>
+      <c r="B31" s="142" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="131"/>
-      <c r="B28" s="137" t="s">
+      <c r="C31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="D31" s="81"/>
+      <c r="E31" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="83" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="136"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="131"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="13" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="85" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="136"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="13" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="131"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="131"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="131"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="131"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="131"/>
-      <c r="B34" s="138"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="131"/>
-      <c r="B35" s="138"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="13" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="131"/>
-      <c r="B36" s="138"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="136"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="136"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="136"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="136"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="131"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E40" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="85" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="136"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="131"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E41" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="85" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="136"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="131"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="13" t="s">
+      <c r="D42" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="E42" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="85" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="136"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="131"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="13" t="s">
+      <c r="D43" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="E43" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="85" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="136"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="131"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="13" t="s">
+      <c r="D44" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="E44" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="85" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="136"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="131"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="13" t="s">
+      <c r="D45" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="E45" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="85" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="136"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="131"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E46" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="85" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="136"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="131"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89" t="s">
+      <c r="D47" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="E47" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="92" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="136"/>
+      <c r="B48" s="145" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="131"/>
-      <c r="B45" s="140" t="s">
+      <c r="C48" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="55" t="s">
+      <c r="E48" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="56" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="136"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="93" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="131"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="93" t="s">
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="136"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="131"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="36" t="s">
+      <c r="D50" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="E50" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="37" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="136"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="136"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="136"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="137"/>
+      <c r="B54" s="142" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="131"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="131"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="94"/>
-      <c r="F49" s="37"/>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="131"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="132"/>
-      <c r="B51" s="137" t="s">
+      <c r="C54" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="D54" s="96"/>
+      <c r="E54" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="98" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="137"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="99" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="132"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="99" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="39" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="137"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="38" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="132"/>
-      <c r="B53" s="141"/>
-      <c r="C53" s="38" t="s">
+      <c r="D56" s="55"/>
+      <c r="E56" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="39" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="137"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="100" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="132"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="100" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="39" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="137"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="84" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="132"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="84" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="59" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="137"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="36" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="132"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="36" t="s">
+      <c r="D59" s="55"/>
+      <c r="E59" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="60" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="137"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="137"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="132"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="36" t="s">
+      <c r="D61" s="35"/>
+      <c r="E61" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="46" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="137"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="132"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="36" t="s">
+      <c r="D62" s="35"/>
+      <c r="E62" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="46" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="138"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="60"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="138"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="62" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="132"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="34" t="s">
+      <c r="D64" s="64"/>
+      <c r="E64" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="46" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="138"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="62" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="133"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="36" t="s">
+      <c r="D65" s="64"/>
+      <c r="E65" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="60" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="138"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="60" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="133"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="133"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="133"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="134"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="68"/>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="139"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A64"/>
-    <mergeCell ref="B13:B27"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="A7:A67"/>
+    <mergeCell ref="B13:B30"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B67"/>
     <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3920,7 +3956,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3949,7 +3985,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="132" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6"/>
@@ -3957,21 +3993,21 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="127"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3989,21 +4025,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="129"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="130"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
@@ -4019,9 +4055,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146" t="s">
-        <v>151</v>
+      <c r="A8" s="150"/>
+      <c r="B8" s="151" t="s">
+        <v>146</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>46</v>
@@ -4031,26 +4067,26 @@
         <v>26</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="31" t="s">
         <v>35</v>
       </c>
@@ -4059,58 +4095,58 @@
         <v>26</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="132"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="132"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="132"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="132"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="49" t="s">
         <v>40</v>
       </c>
@@ -4123,332 +4159,332 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="132"/>
-      <c r="B15" s="147" t="s">
-        <v>162</v>
+      <c r="A15" s="137"/>
+      <c r="B15" s="152" t="s">
+        <v>157</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="132"/>
-      <c r="B16" s="147"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="132"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="132"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="132"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="132"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="132"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="21"/>
       <c r="D21" s="28"/>
       <c r="E21" s="21"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="132"/>
-      <c r="B22" s="147"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="21"/>
       <c r="D22" s="28"/>
       <c r="E22" s="21"/>
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="132"/>
-      <c r="B23" s="147"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="132"/>
-      <c r="B24" s="146" t="s">
-        <v>175</v>
+      <c r="A24" s="137"/>
+      <c r="B24" s="151" t="s">
+        <v>170</v>
       </c>
       <c r="C24" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>118</v>
-      </c>
       <c r="E24" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="132"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="132"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="132"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="132"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="132"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="132"/>
-      <c r="B30" s="146"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="132"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="132"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="132"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="57"/>
       <c r="D33" s="14"/>
       <c r="E33" s="34"/>
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="132"/>
-      <c r="B34" s="146"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="58"/>
       <c r="D34" s="35"/>
       <c r="E34" s="31"/>
       <c r="F34" s="59"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="132"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="34"/>
       <c r="D35" s="55"/>
       <c r="E35" s="38"/>
       <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="132"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="34"/>
       <c r="D36" s="55"/>
       <c r="E36" s="32"/>
       <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="132"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="34"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="132"/>
-      <c r="B38" s="146"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="34"/>
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="133"/>
-      <c r="B39" s="146"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="34"/>
       <c r="D39" s="61"/>
       <c r="E39" s="62"/>
       <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="133"/>
-      <c r="B40" s="146"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="63"/>
       <c r="D40" s="64"/>
       <c r="E40" s="36"/>
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="133"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="63"/>
       <c r="D41" s="64"/>
       <c r="E41" s="62"/>
       <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="133"/>
-      <c r="B42" s="146"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="63"/>
       <c r="D42" s="64"/>
       <c r="E42" s="36"/>
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="134"/>
-      <c r="B43" s="146"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="65"/>
       <c r="D43" s="66"/>
       <c r="E43" s="67"/>
@@ -4486,7 +4522,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4515,7 +4551,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="132" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6"/>
@@ -4523,11 +4559,11 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="127"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4535,7 +4571,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4553,7 +4589,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="129"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
         <v>12</v>
@@ -4565,7 +4601,7 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="130"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
@@ -4581,9 +4617,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146" t="s">
-        <v>151</v>
+      <c r="A8" s="150"/>
+      <c r="B8" s="151" t="s">
+        <v>146</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>46</v>
@@ -4593,26 +4629,26 @@
         <v>26</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="21" t="s">
         <v>35</v>
       </c>
@@ -4621,14 +4657,14 @@
         <v>26</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
@@ -4637,8 +4673,8 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="132"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="21" t="s">
         <v>40</v>
       </c>
@@ -4647,222 +4683,222 @@
         <v>26</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="132"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="116" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="132"/>
-      <c r="B14" s="146"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="116"/>
       <c r="D14" s="113"/>
       <c r="E14" s="113"/>
       <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="132"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="132"/>
-      <c r="B16" s="147" t="s">
-        <v>192</v>
+      <c r="A16" s="137"/>
+      <c r="B16" s="152" t="s">
+        <v>187</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="132"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="132"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="132"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="132"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="132"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="132"/>
-      <c r="B22" s="147"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="132"/>
-      <c r="B23" s="147"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="152"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="132"/>
-      <c r="B24" s="147"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="132"/>
-      <c r="B25" s="147"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="21"/>
       <c r="D25" s="28"/>
       <c r="E25" s="21"/>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="132"/>
-      <c r="B26" s="147"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="132"/>
-      <c r="B27" s="147"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="137"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="132"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>217</v>
-      </c>
       <c r="E28" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="132"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="21"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="132"/>
-      <c r="B30" s="146" t="s">
+      <c r="A30" s="137"/>
+      <c r="B30" s="151" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -4873,12 +4909,12 @@
         <v>26</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="132"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="21"/>
       <c r="D31" s="28"/>
       <c r="E31" s="21" t="s">
@@ -4887,8 +4923,8 @@
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="132"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="31"/>
       <c r="D32" s="14"/>
       <c r="E32" s="32" t="s">
@@ -4897,8 +4933,8 @@
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="132"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
       <c r="E33" s="36" t="s">
@@ -4907,8 +4943,8 @@
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="132"/>
-      <c r="B34" s="146"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36" t="s">
@@ -4917,8 +4953,8 @@
       <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="132"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="31"/>
       <c r="D35" s="14"/>
       <c r="E35" s="36" t="s">
@@ -4927,8 +4963,8 @@
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="132"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="31"/>
       <c r="D36" s="14"/>
       <c r="E36" s="36" t="s">
@@ -4937,8 +4973,8 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="132"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="38"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36" t="s">
@@ -4948,51 +4984,51 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
-      <c r="B38" s="146" t="s">
-        <v>207</v>
+      <c r="B38" s="151" t="s">
+        <v>202</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="24"/>
-      <c r="B39" s="146"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="24"/>
-      <c r="B40" s="146"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="24"/>
-      <c r="B41" s="146"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="34" t="s">
         <v>37</v>
       </c>
@@ -5001,12 +5037,12 @@
         <v>26</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="24"/>
-      <c r="B42" s="146"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="34"/>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
@@ -5014,7 +5050,7 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="24"/>
-      <c r="B43" s="146"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="31"/>
       <c r="D43" s="14"/>
       <c r="E43" s="36"/>
@@ -5022,7 +5058,7 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="24"/>
-      <c r="B44" s="146"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="31"/>
       <c r="D44" s="14"/>
       <c r="E44" s="36"/>
@@ -5030,7 +5066,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="24"/>
-      <c r="B45" s="146"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="38"/>
       <c r="D45" s="35"/>
       <c r="E45" s="36"/>

--- a/按键帮助.xlsx
+++ b/按键帮助.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="1"/>
+    <workbookView xWindow="9240" yWindow="0" windowWidth="24240" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="244">
   <si>
     <t>程序</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>F4</t>
-  </si>
-  <si>
-    <t>2.双按关闭3.长按关闭所有合成组</t>
   </si>
   <si>
     <t>1.播放</t>
@@ -822,12 +819,18 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>1.K帧2.双按关闭3.长按关闭所有合成组</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +993,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1835,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2294,6 +2304,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2595,7 +2617,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="69" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="103"/>
@@ -2667,12 +2689,12 @@
       <c r="A6" s="127"/>
       <c r="B6" s="130"/>
       <c r="C6" s="117" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="107"/>
       <c r="F6" s="109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2776,19 +2798,19 @@
       <c r="D18" s="108"/>
       <c r="E18" s="107"/>
       <c r="F18" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="127"/>
       <c r="B19" s="130"/>
       <c r="C19" s="107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="107"/>
       <c r="F19" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -2874,7 +2896,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="127"/>
       <c r="B30" s="130" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>14</v>
@@ -2882,24 +2904,24 @@
       <c r="D30" s="108"/>
       <c r="E30" s="107"/>
       <c r="F30" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="128"/>
       <c r="B31" s="131"/>
       <c r="C31" s="110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="111"/>
       <c r="E31" s="110"/>
       <c r="F31" s="112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="125"/>
       <c r="C34" s="125"/>
@@ -2910,13 +2932,13 @@
     <row r="35" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="123"/>
       <c r="B35" s="121" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="D35" s="122" t="s">
         <v>232</v>
-      </c>
-      <c r="D35" s="122" t="s">
-        <v>233</v>
       </c>
       <c r="E35" s="124"/>
       <c r="F35" s="123"/>
@@ -2947,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2966,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="69" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3124,28 +3146,28 @@
       <c r="A11" s="136"/>
       <c r="B11" s="143"/>
       <c r="C11" s="119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="136"/>
       <c r="B12" s="149"/>
       <c r="C12" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -3217,7 +3239,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3259,7 +3281,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3273,109 +3295,109 @@
         <v>26</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="136"/>
       <c r="B22" s="141"/>
       <c r="C22" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="136"/>
       <c r="B23" s="141"/>
       <c r="C23" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="136"/>
       <c r="B24" s="141"/>
       <c r="C24" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="136"/>
       <c r="B25" s="141"/>
       <c r="C25" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="136"/>
       <c r="B26" s="141"/>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="136"/>
       <c r="B27" s="141"/>
       <c r="C27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="136"/>
       <c r="B28" s="141"/>
       <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3393,115 +3415,115 @@
         <v>37</v>
       </c>
       <c r="D30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="136"/>
       <c r="B31" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="82" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="136"/>
       <c r="B32" s="143"/>
       <c r="C32" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="64"/>
       <c r="E32" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="136"/>
       <c r="B33" s="143"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="156" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="136"/>
       <c r="B34" s="143"/>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="154"/>
+      <c r="E34" s="155" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="156" t="s">
         <v>75</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="85" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="136"/>
       <c r="B35" s="143"/>
       <c r="C35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="85" t="s">
         <v>78</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="85" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="136"/>
       <c r="B36" s="144"/>
       <c r="C36" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="136"/>
       <c r="B37" s="143"/>
       <c r="C37" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3511,205 +3533,205 @@
         <v>33</v>
       </c>
       <c r="D38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>84</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="85" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="136"/>
       <c r="B39" s="143"/>
       <c r="C39" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="136"/>
       <c r="B40" s="143"/>
       <c r="C40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>89</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="85" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="136"/>
       <c r="B41" s="143"/>
       <c r="C41" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="85" t="s">
         <v>92</v>
-      </c>
-      <c r="E41" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="85" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="136"/>
       <c r="B42" s="143"/>
       <c r="C42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="E42" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>95</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="136"/>
       <c r="B43" s="143"/>
       <c r="C43" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="E43" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="85" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="85" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="136"/>
       <c r="B44" s="143"/>
       <c r="C44" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="E44" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="85" t="s">
         <v>101</v>
-      </c>
-      <c r="E44" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="85" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="136"/>
       <c r="B45" s="143"/>
       <c r="C45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="E45" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="85" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="136"/>
       <c r="B46" s="143"/>
       <c r="C46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="85" t="s">
         <v>107</v>
-      </c>
-      <c r="E46" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="136"/>
       <c r="B47" s="88"/>
       <c r="C47" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="E47" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="92" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="92" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="136"/>
       <c r="B48" s="145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="56" t="s">
         <v>113</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="136"/>
       <c r="B49" s="145"/>
       <c r="C49" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="35" t="s">
-        <v>110</v>
-      </c>
       <c r="E49" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="136"/>
       <c r="B50" s="145"/>
       <c r="C50" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="E50" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>117</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3739,87 +3761,87 @@
     <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="137"/>
       <c r="B54" s="142" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="95" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" s="95" t="s">
-        <v>120</v>
       </c>
       <c r="D54" s="96"/>
       <c r="E54" s="97" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="137"/>
       <c r="B55" s="143"/>
       <c r="C55" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="137"/>
       <c r="B56" s="146"/>
       <c r="C56" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="137"/>
       <c r="B57" s="143"/>
       <c r="C57" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="137"/>
       <c r="B58" s="143"/>
       <c r="C58" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="137"/>
       <c r="B59" s="143"/>
       <c r="C59" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3836,28 +3858,28 @@
       <c r="A61" s="137"/>
       <c r="B61" s="143"/>
       <c r="C61" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="137"/>
       <c r="B62" s="146"/>
       <c r="C62" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3874,42 +3896,42 @@
       <c r="A64" s="138"/>
       <c r="B64" s="143"/>
       <c r="C64" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="64"/>
       <c r="E64" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="138"/>
       <c r="B65" s="143"/>
       <c r="C65" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="64"/>
       <c r="E65" s="62" t="s">
         <v>26</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="138"/>
       <c r="B66" s="143"/>
       <c r="C66" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="64"/>
       <c r="E66" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -3956,7 +3978,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3993,7 +4015,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4003,7 +4025,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4028,14 +4050,14 @@
       <c r="A6" s="134"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4057,7 +4079,7 @@
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="150"/>
       <c r="B8" s="151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>46</v>
@@ -4067,21 +4089,21 @@
         <v>26</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="150"/>
       <c r="B9" s="151"/>
       <c r="C9" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4095,7 +4117,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4105,43 +4127,43 @@
         <v>33</v>
       </c>
       <c r="D11" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>151</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="137"/>
       <c r="B12" s="151"/>
       <c r="C12" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>153</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="137"/>
       <c r="B13" s="151"/>
       <c r="C13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4161,45 +4183,45 @@
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="137"/>
       <c r="B15" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="137"/>
       <c r="B16" s="152"/>
       <c r="C16" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="137"/>
       <c r="B17" s="152"/>
       <c r="C17" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4209,43 +4231,43 @@
         <v>44</v>
       </c>
       <c r="D18" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="137"/>
       <c r="B19" s="152"/>
       <c r="C19" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="137"/>
       <c r="B20" s="152"/>
       <c r="C20" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>168</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4275,131 +4297,131 @@
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="137"/>
       <c r="B24" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>170</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="137"/>
       <c r="B25" s="151"/>
       <c r="C25" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="137"/>
       <c r="B26" s="151"/>
       <c r="C26" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="137"/>
       <c r="B27" s="151"/>
       <c r="C27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="137"/>
       <c r="B28" s="151"/>
       <c r="C28" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="137"/>
       <c r="B29" s="151"/>
       <c r="C29" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="137"/>
       <c r="B30" s="151"/>
       <c r="C30" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="137"/>
       <c r="B31" s="151"/>
       <c r="C31" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="137"/>
       <c r="B32" s="151"/>
       <c r="C32" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4522,7 +4544,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4559,7 +4581,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4619,7 +4641,7 @@
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="150"/>
       <c r="B8" s="151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>46</v>
@@ -4629,21 +4651,21 @@
         <v>26</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="150"/>
       <c r="B9" s="151"/>
       <c r="C9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4657,14 +4679,14 @@
         <v>26</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="150"/>
       <c r="B11" s="151"/>
       <c r="C11" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
@@ -4683,21 +4705,21 @@
         <v>26</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="137"/>
       <c r="B13" s="151"/>
       <c r="C13" s="116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="113" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4719,101 +4741,101 @@
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="137"/>
       <c r="B16" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="137"/>
       <c r="B17" s="152"/>
       <c r="C17" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="137"/>
       <c r="B18" s="152"/>
       <c r="C18" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="137"/>
       <c r="B19" s="152"/>
       <c r="C19" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="137"/>
       <c r="B20" s="152"/>
       <c r="C20" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="137"/>
       <c r="B21" s="152"/>
       <c r="C21" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="137"/>
       <c r="B22" s="152"/>
       <c r="C22" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4824,14 +4846,14 @@
       <c r="A24" s="137"/>
       <c r="B24" s="152"/>
       <c r="C24" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4846,46 +4868,46 @@
       <c r="A26" s="137"/>
       <c r="B26" s="152"/>
       <c r="C26" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>208</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="137"/>
       <c r="B27" s="152"/>
       <c r="C27" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="137"/>
       <c r="B28" s="152"/>
       <c r="C28" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4909,7 +4931,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -4985,7 +5007,7 @@
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="24"/>
       <c r="B38" s="151" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>49</v>
@@ -4995,7 +5017,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -5009,7 +5031,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -5023,7 +5045,7 @@
         <v>26</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -5037,7 +5059,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
